--- a/牛客笔试题/基本数据类型.xlsx
+++ b/牛客笔试题/基本数据类型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12140" windowHeight="4320"/>
+    <workbookView windowWidth="13875" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,6 +32,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -40,6 +61,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -47,10 +122,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -61,127 +175,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -192,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,6 +376,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -403,24 +405,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,17 +418,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -478,8 +456,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,148 +481,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -729,7 +722,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="31750" y="171450"/>
-          <a:ext cx="2673350" cy="3714750"/>
+          <a:ext cx="2913380" cy="3581400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -770,8 +763,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2978150" y="1917700"/>
-          <a:ext cx="4826000" cy="1479550"/>
+          <a:off x="3235325" y="1854200"/>
+          <a:ext cx="5254625" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -812,8 +805,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3041650" y="3575050"/>
-          <a:ext cx="1708150" cy="844550"/>
+          <a:off x="3298825" y="3448050"/>
+          <a:ext cx="1862455" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -854,8 +847,134 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3149600" y="4724400"/>
-          <a:ext cx="6522085" cy="1816100"/>
+          <a:off x="3423920" y="4559300"/>
+          <a:ext cx="7105015" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>165735</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="518160" y="7743825"/>
+          <a:ext cx="5876925" cy="4981575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>100965</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="234315" y="13154025"/>
+          <a:ext cx="8172450" cy="7505700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="546735" y="20707350"/>
+          <a:ext cx="6734175" cy="1057275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1160,13 +1279,13 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="2.725" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="2.72727272727273" customWidth="1"/>
+    <col min="1" max="16384" width="2.725" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1185,7 +1304,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1202,7 +1321,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/牛客笔试题/基本数据类型.xlsx
+++ b/牛客笔试题/基本数据类型.xlsx
@@ -19,9 +19,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -33,19 +33,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -53,9 +62,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -63,40 +78,41 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,57 +138,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -185,31 +185,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,151 +353,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,11 +379,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -403,26 +409,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -438,17 +424,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,7 +437,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +456,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -987,6 +987,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="272415" y="23098125"/>
+          <a:ext cx="9296400" cy="6248400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1279,8 +1321,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.725" defaultRowHeight="13.5"/>

--- a/牛客笔试题/基本数据类型.xlsx
+++ b/牛客笔试题/基本数据类型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13875" windowHeight="10275"/>
+    <workbookView windowWidth="19080" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -33,6 +33,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -48,7 +55,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,17 +121,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,19 +137,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,6 +153,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -117,58 +169,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -185,25 +185,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,43 +353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,109 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,6 +390,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,17 +445,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,15 +468,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,31 +496,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,100 +532,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,6 +1017,300 @@
         <a:xfrm>
           <a:off x="272415" y="23098125"/>
           <a:ext cx="9296400" cy="6248400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="207645" y="30727650"/>
+          <a:ext cx="5219700" cy="6429375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5869305" y="32861250"/>
+          <a:ext cx="5695950" cy="2990850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>36195</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>127635</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36195" y="39052500"/>
+          <a:ext cx="6943725" cy="5448300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="367665" y="44938950"/>
+          <a:ext cx="8172450" cy="4105275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622935" y="49530000"/>
+          <a:ext cx="8096250" cy="3619500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>169545</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>165735</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="169545" y="54111525"/>
+          <a:ext cx="8924925" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622935" y="58293000"/>
+          <a:ext cx="7448550" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1321,8 +1615,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="AV334" sqref="AV334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.725" defaultRowHeight="13.5"/>
